--- a/chapter 1/RelativeAndAbsolute.xlsx
+++ b/chapter 1/RelativeAndAbsolute.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0633D0D0-4945-475D-BB4A-0B9A11D19827}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8DD1C-C1FD-0D44-BC1B-B3419B1941F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,11 +85,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -405,87 +406,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>4.7500000000000001E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>180000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <f>B2+(B2*B$1)</f>
+        <v>188550</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C2+(C2*C$1)</f>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B11" si="0">B3+(B3*B$1)</f>
+        <v>197506.125</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C11" si="1">C3+(C3*C$1)</f>
+        <v>24200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2021</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>206887.66593749999</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>26620000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>216714.83006953125</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>29282000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2023</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>227008.78449783399</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>32210200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2024</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>237791.70176148109</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>35431220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2025</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>249086.80759515145</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>38974342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2026</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>260918.43095592115</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>42871776.200000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2027</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>273312.05642632738</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>47158953.82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
